--- a/pred_ohlcv/54_21/2019-10-30 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 FNB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>16136.75169999998</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-27754.24330000002</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-27696.74330000002</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-27696.74330000002</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-27696.74330000002</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-27696.74330000002</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-27696.74330000002</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-27696.74330000002</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-27696.74330000002</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>177306.6951</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>177306.6951</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>177306.6951</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -808,7 +808,7 @@
         <v>177306.6951</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>157307.1558</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>157406.6743</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>3840363.544521658</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>4096014.633521658</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>4675254.542721658</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>4675254.542721658</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>3179030.875321658</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>3179030.875321658</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>3179030.875321658</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>3179030.875321658</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>3788918.036921659</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>4174831.592521659</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>4174831.592521659</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>3976108.062821659</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>4258200.696521658</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>4258200.696521658</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>4258200.696521658</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>4015836.488621659</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>4234091.108721659</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>4234091.108721659</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>3593198.726821659</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>3534537.008221659</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>3602794.496821659</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>3602794.496821659</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>3602794.496821659</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>3602794.496821659</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>3602794.496821659</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>3602794.496821659</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>3259388.997721659</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>3742461.785921658</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>3735785.917421659</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>3854179.330121659</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>3854179.330121659</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>3854179.330121659</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>3854179.330121659</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>3854179.330121659</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>3678001.546021659</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>3732694.289921659</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>3312220.129621659</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-1369493.498872198</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-278257.3499089421</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-278257.3499089421</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-278257.3499089421</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-980754.5769089421</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-980754.5769089421</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-780099.906708942</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-780099.906708942</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-780099.906708942</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-1034522.860931485</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-1041453.746731485</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-1041453.746731485</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-1041453.746731485</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-861912.4677314854</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-861912.4677314854</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-1043602.512231485</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-2212634.39199634</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-2839108.27969634</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-2450668.47229634</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-3332514.72639634</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-3639926.52579634</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-3162674.56589634</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-3163688.71609634</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-3118107.28419634</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-3379474.10189634</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-3379474.10189634</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-3379474.10189634</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-3379474.10189634</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-3442546.06309634</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-3273455.52359634</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-3401663.50809634</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-9201255.408867767</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-9974463.008007858</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-9914438.356907858</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-10202235.95920786</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-10236927.69660786</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-10497524.23977569</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-10280711.7628757</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-10280711.7628757</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-10355420.0826757</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-10355420.0826757</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-10355420.0826757</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-10355420.0826757</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-10355420.0826757</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-10634725.5469757</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-10634725.5469757</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-10634725.5469757</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-10842612.0422757</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-10733182.7482757</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-10733182.7482757</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-10583182.7482757</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-10583182.7482757</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-10515103.91107569</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-10515103.91107569</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-10538459.27632423</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-10538459.27632423</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-10538459.27632423</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-10538449.27632423</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-10577617.57507277</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-10578468.66227277</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-10235291.54190552</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-30 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 FNB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>16136.75169999998</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-27754.24330000002</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-27696.74330000002</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-27696.74330000002</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>3840363.544521658</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>4096014.633521658</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>4675254.542721658</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>4675254.542721658</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>3179030.875321658</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>3179030.875321658</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>3179030.875321658</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>3179030.875321658</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>3788918.036921659</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>4174831.592521659</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>4174831.592521659</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>3976108.062821659</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>4258200.696521658</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>4258200.696521658</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>4258200.696521658</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>4015836.488621659</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>4234091.108721659</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>4234091.108721659</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>3593198.726821659</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>3534537.008221659</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>3602794.496821659</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>3602794.496821659</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>3602794.496821659</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>3602794.496821659</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>3602794.496821659</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>3602794.496821659</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>3259388.997721659</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>3742461.785921658</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>3735785.917421659</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>3854179.330121659</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>3854179.330121659</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>3854179.330121659</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>3854179.330121659</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>3854179.330121659</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>3678001.546021659</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>3732694.289921659</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>3312220.129621659</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-1369493.498872198</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-278257.3499089421</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-278257.3499089421</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-278257.3499089421</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-980754.5769089421</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-980754.5769089421</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-780099.906708942</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-780099.906708942</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-780099.906708942</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-1034522.860931485</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-1041453.746731485</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-1041453.746731485</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-1041453.746731485</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-861912.4677314854</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-861912.4677314854</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-1043602.512231485</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-2212634.39199634</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-2839108.27969634</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-2450668.47229634</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-3332514.72639634</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-3639926.52579634</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-3162674.56589634</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-3379474.10189634</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-9201255.408867767</v>
       </c>
       <c r="H822">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-9974463.008007858</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-9914438.356907858</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-10202235.95920786</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-10236927.69660786</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-10497524.23977569</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-10497524.23977569</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-10497524.23977569</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-10497524.23977569</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-10497524.23977569</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-10498724.23977569</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-10460929.0574757</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-10460929.0574757</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-10460929.0574757</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-10460929.0574757</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-10383009.3499757</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-10383009.3499757</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-10383009.3499757</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-10280711.7628757</v>
       </c>
       <c r="H880">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-10355420.0826757</v>
       </c>
       <c r="H882">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-10830432.3314757</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-10825921.9869757</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-10825921.9869757</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-10799250.5717757</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-10836559.2187757</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-10836559.2187757</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-10836559.2187757</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-10842612.0422757</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-10842612.0422757</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-10842612.0422757</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-10733182.7482757</v>
       </c>
       <c r="H900">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-10733182.7482757</v>
       </c>
       <c r="H901">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-10515103.91107569</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-10538449.27632423</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-10578458.66227277</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-10628458.66227277</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-10628458.66227277</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-10503468.99447277</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-10106596.56317277</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-10106596.56317277</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-10156616.18117277</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-10177601.21007277</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-10169389.62737277</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-10169389.62737277</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-10214615.81710552</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-10235411.42490552</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-10235411.42490552</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-10235291.54190552</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927" spans="1:8">
